--- a/reporting/excel_generator/templates/journal.xlsx
+++ b/reporting/excel_generator/templates/journal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="7215" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="7215" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="412" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>Факультет: прикладна математика</t>
   </si>
@@ -237,33 +237,6 @@
   </si>
   <si>
     <t>РОЗПОДІЛ ГРОМАДСЬКИХ ДОРУЧЕНЬ У ГРУПІ</t>
-  </si>
-  <si>
-    <t>1. Курс</t>
-  </si>
-  <si>
-    <t>2. Група</t>
-  </si>
-  <si>
-    <t>3. Староста</t>
-  </si>
-  <si>
-    <t>4. Заступник старости</t>
-  </si>
-  <si>
-    <t>5. Профгрупорг</t>
-  </si>
-  <si>
-    <t>6. Культурно-дозвіллєва робота</t>
-  </si>
-  <si>
-    <t>7. Спортивно-оздоровча робота</t>
-  </si>
-  <si>
-    <t>8. Редколегія</t>
-  </si>
-  <si>
-    <t>9. Інші доручення</t>
   </si>
   <si>
     <t>"Затверджую"</t>
@@ -929,13 +902,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1279,14 +1252,14 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
       <c r="E1" s="78"/>
       <c r="F1" s="78" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G1" s="78"/>
       <c r="H1" s="78"/>
@@ -1295,34 +1268,34 @@
     </row>
     <row r="2" spans="1:10" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -1543,11 +1516,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -1743,106 +1716,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="80"/>
+      <c r="A1" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="79"/>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="4" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
     </row>
     <row r="6" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
     </row>
     <row r="7" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
     </row>
     <row r="8" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
     </row>
     <row r="9" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
     </row>
     <row r="10" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
     </row>
     <row r="11" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
     </row>
     <row r="12" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
     </row>
     <row r="13" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
     </row>
     <row r="14" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
     </row>
     <row r="15" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
     </row>
     <row r="16" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
     </row>
     <row r="17" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
     </row>
     <row r="18" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
     </row>
     <row r="19" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
     </row>
     <row r="20" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
     </row>
     <row r="21" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
     </row>
     <row r="22" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
     </row>
     <row r="23" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
     </row>
     <row r="24" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
     </row>
     <row r="25" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
     </row>
     <row r="26" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
     </row>
     <row r="27" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -1850,12 +1823,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -1875,36 +1848,36 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2194,7 +2167,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2250,14 +2223,14 @@
     <row r="7" spans="1:3" ht="170.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C8" s="15"/>
     </row>
@@ -2281,7 +2254,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2297,54 +2270,38 @@
       <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>69</v>
-      </c>
+      <c r="A2" s="21"/>
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="A3" s="21"/>
       <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>71</v>
-      </c>
+      <c r="A4" s="21"/>
       <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>72</v>
-      </c>
+      <c r="A5" s="21"/>
       <c r="B5" s="24"/>
     </row>
     <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="A6" s="21"/>
       <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>74</v>
-      </c>
+      <c r="A7" s="21"/>
       <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>75</v>
-      </c>
+      <c r="A8" s="21"/>
       <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>76</v>
-      </c>
+      <c r="A9" s="21"/>
       <c r="B9" s="24"/>
     </row>
-    <row r="10" spans="1:2" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="24"/>
     </row>
@@ -2353,9 +2310,7 @@
       <c r="B11" s="24"/>
     </row>
     <row r="12" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>77</v>
-      </c>
+      <c r="A12" s="21"/>
       <c r="B12" s="24"/>
     </row>
     <row r="13" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -2608,7 +2563,7 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -2616,7 +2571,7 @@
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
@@ -2899,16 +2854,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2936,28 +2891,28 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="70" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="71" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="71" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
     </row>
     <row r="4" spans="1:5" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -2975,7 +2930,7 @@
     </row>
     <row r="6" spans="1:5" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="68" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -2984,19 +2939,19 @@
     </row>
     <row r="7" spans="1:5" s="29" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3337,7 +3292,7 @@
     <row r="53" spans="1:5" s="27" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
       <c r="B53" s="26" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -3346,7 +3301,7 @@
     <row r="54" spans="1:5" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
       <c r="B54" s="26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C54" s="69"/>
       <c r="D54" s="69"/>
@@ -3389,7 +3344,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="55" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -3403,7 +3358,7 @@
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
       <c r="M1" s="74" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N1" s="74"/>
       <c r="O1" s="74"/>
@@ -3419,7 +3374,7 @@
     </row>
     <row r="2" spans="1:24" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -3433,7 +3388,7 @@
       <c r="K2" s="75"/>
       <c r="L2" s="75"/>
       <c r="M2" s="75" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N2" s="75"/>
       <c r="O2" s="75"/>
@@ -3449,55 +3404,55 @@
     </row>
     <row r="3" spans="1:24" s="57" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B3" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="72" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="72" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H3" s="73"/>
       <c r="I3" s="72" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J3" s="73"/>
       <c r="K3" s="72" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L3" s="73"/>
       <c r="M3" s="76" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="N3" s="73" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="76" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P3" s="73"/>
       <c r="Q3" s="72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="R3" s="73"/>
       <c r="S3" s="72" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="T3" s="73"/>
       <c r="U3" s="72" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V3" s="73"/>
       <c r="W3" s="72" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="X3" s="73"/>
     </row>
@@ -3906,16 +3861,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:X1"/>
     <mergeCell ref="A2:L2"/>
@@ -3924,6 +3873,12 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
